--- a/database/data/wiktionary/cinnamon_gen.xlsx
+++ b/database/data/wiktionary/cinnamon_gen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H163"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,32 +441,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>language</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>term</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>transliteration</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>item</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>group</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>sense</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>term</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>group</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>word</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>transliteration</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -479,26 +479,26 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Afrikaans</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Afrikaans</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
           <t>kaneel</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>kaneel</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -509,26 +509,26 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Albanian</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Afrikaans</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>kaneelboom</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>kaneelboom</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
+          <t>kanellë</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>kanellë</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -539,26 +539,30 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Amharic</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Albanian</t>
+          <t>ቀረፋ</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>kanellë</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>kanellë</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
+          <t>ḳäräfa</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ቀረፋ *ḳäräfa*</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -569,28 +573,28 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Arabic</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Amharic</t>
+          <t>قِرْفَة</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ቀረፋ *ḳäräfa*</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>ቀረፋ</t>
-        </is>
-      </c>
+          <t>qirfa</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>قِرْفَة *qirfa*</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>ḳäräfa</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -603,28 +607,28 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Egyptian Arabic</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Armenian</t>
+          <t>قرفة</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>դարչին *darčʿin*</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>դարչին</t>
-        </is>
-      </c>
+          <t>ʔerfa</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>قرفة *ʔerfa*</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>darčʿin</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -637,28 +641,28 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Gulf Arabic</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Assamese</t>
+          <t>دارسين</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>দালচেনি *dalseni*</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>দালচেনি</t>
-        </is>
-      </c>
+          <t>dārsīn</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>دارسين *dārsīn*</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>dalseni</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -671,26 +675,30 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Hijazi Arabic</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Azerbaijani</t>
+          <t>قرفة</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>darçın</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>darçın</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
+          <t>girfa</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>قرفة *girfa*</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -701,26 +709,30 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Aramaic</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Basque</t>
+          <t>דַּרְצִינִי</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>kanela</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>kanela</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
+          <t>darṣīnī</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>דַּרְצִינִי *darṣīnī*</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -731,28 +743,28 @@
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Jewish Babylonian Aramaic</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Belarusian</t>
+          <t>דַּרְצִינִי</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>кары́ца *karýca*</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>кары́ца</t>
-        </is>
-      </c>
+          <t>darṣīnī</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>דַּרְצִינִי *darṣīnī*</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>karýca</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -765,28 +777,28 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Armenian</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Belarusian</t>
+          <t>դարչին</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">цынамо́н *cynamón* </t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>цынамо́н</t>
-        </is>
-      </c>
+          <t>darčʿin</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>դարչին *darčʿin*</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>cynamón</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -799,28 +811,28 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Old Armenian</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Bengali</t>
+          <t>դարիճենիկ</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>দারচিনি *darcini*</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>দারচিনি</t>
-        </is>
-      </c>
+          <t>daričenik</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>դարիճենիկ *daričenik*</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>darcini</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -833,28 +845,28 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Old Armenian</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Bengali</t>
+          <t>կինամոմոն</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>দারুচিনি *darucini*</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>দারুচিনি</t>
-        </is>
-      </c>
+          <t>kinamomon</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>կինամոմոն *kinamomon*</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>darucini</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -867,26 +879,26 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Azerbaijani</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Bikol Central</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>kanela</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>kanela</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
+          <t>darçın</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>darçın</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -897,26 +909,30 @@
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Belarusian</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Breton</t>
+          <t>кары́ца</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>kanell</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>kanell</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
+          <t>karýca</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>кары́ца *karýca*</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -927,28 +943,28 @@
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Belarusian</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Breton</t>
+          <t>цынамо́н</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>gwez-kanell *collective*</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>gwez-kanell</t>
-        </is>
-      </c>
+          <t>cynamón</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">цынамо́н *cynamón* </t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>collective</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -961,26 +977,26 @@
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Breton</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Brunei Malay</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>kayu manis</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>kayu manis</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
+          <t>kanell</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>kanell</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -991,28 +1007,24 @@
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Brunei Malay</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Bulgarian</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>кане́лено дърво́ *kanéleno dǎrvó*</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>кане́лено дърво́</t>
-        </is>
-      </c>
+          <t>kayu manis</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>kayu manis</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>kanéleno dǎrvó</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1025,28 +1037,28 @@
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Bulgarian</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Bulgarian</t>
+          <t>кане́ла</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>kanéla</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>кане́ла *kanéla*</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>кане́ла</t>
-        </is>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>kanéla</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1059,26 +1071,30 @@
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Burmese</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Catalan</t>
+          <t>သစ်ကြံပိုး</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>canella</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>canella</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
+          <t>sackrampui:</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>သစ်ကြံပိုး *sackrampui:*</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -1089,26 +1105,26 @@
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Catalan</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Catalan</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
           <t>canyella</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
         <is>
           <t>canyella</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -1119,26 +1135,26 @@
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Catalan</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Catalan</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>caneller</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>caneller</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
+          <t>canella</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>canella</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -1149,26 +1165,30 @@
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Catalan</t>
+          <t>肉桂</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>canyeller</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>canyeller</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
+          <t>juk6 gwai3</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>肉桂 *juk6 gwai3*</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -1179,26 +1199,30 @@
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Cantonese</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Crimean Tatar</t>
+          <t>肉桂</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>tarçın</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>tarçın</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
+          <t>juk6 gwai3</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>肉桂 *juk6 gwai3*</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -1209,26 +1233,30 @@
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Mandarin</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Czech</t>
+          <t>肉桂</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>skořice</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>skořice</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
+          <t>ròuguì</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>肉桂 *ròuguì*</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -1239,26 +1267,26 @@
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Crimean Tatar</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Czech</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>skořicovník</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>skořicovník</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
+          <t>tarçın</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>tarçın</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -1269,26 +1297,26 @@
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Czech</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Danish</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>kanel</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>kanel</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
+          <t>skořice</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>skořice</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -1299,28 +1327,24 @@
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Danish</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Dhivehi</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>ފޮނި ތޮށި *foni toṣi*</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>ފޮނި ތޮށި</t>
-        </is>
-      </c>
+          <t>kanel</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>kanel</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>foni toṣi</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1333,26 +1357,26 @@
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Dutch</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Dutch</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>kaneelboom</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>kaneelboom</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
+          <t>kaneel</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>kaneel</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -1363,26 +1387,26 @@
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Esperanto</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Dutch</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>kaneel</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>kaneel</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
+          <t>cinamo</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>cinamo</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -1393,26 +1417,26 @@
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Estonian</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Esperanto</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>vera cinamomo</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>vera cinamomo</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
+          <t>kaneel</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>kaneel</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -1423,26 +1447,26 @@
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Faroese</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Esperanto</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>cinamo</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>cinamo</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
+          <t>kanel</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>kanel</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -1453,26 +1477,26 @@
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Finnish</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Estonian</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>kaneel</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>kaneel</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
+          <t>kaneli</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>kaneli</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -1483,26 +1507,26 @@
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>French</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Faroese</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>kanel</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>kanel</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
+          <t>cannelle</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>cannelle</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -1513,26 +1537,26 @@
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Galician</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Finnish</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>kanelipuu</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>kanelipuu</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
+          <t>canela</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>canela</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -1543,26 +1567,30 @@
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Georgian</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Finnish</t>
+          <t>დარიჩინი</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>ceyloninkaneli</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>ceyloninkaneli</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
+          <t>daričini</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>დარიჩინი *daričini*</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -1573,26 +1601,26 @@
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>German</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Finnish</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>kaneli</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>kaneli</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
+          <t>Zimt</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Zimt</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -1603,26 +1631,26 @@
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>German</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>French</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>cannelier</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>cannelier</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr"/>
+          <t>Kaneel</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Kaneel</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -1633,26 +1661,30 @@
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Greek</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>French</t>
+          <t>κανέλα</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>cannelle</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>cannelle</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
+          <t>kanéla</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>κανέλα *kanéla*</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -1663,26 +1695,30 @@
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Ancient</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Galician</t>
+          <t>κιννάμωμον</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>canela</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>canela</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
+          <t>kinnámōmon</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>κιννάμωμον *kinnámōmon*</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -1693,28 +1729,24 @@
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Hausa</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Georgian</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>დარიჩინი *daričini*</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>დარიჩინი</t>
-        </is>
-      </c>
+          <t>kirfa</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>kirfa</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>daričini</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -1727,26 +1759,30 @@
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Hebrew</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>German</t>
+          <t>קינמון \ קִנָּמוֹן</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Zimtbaum</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Zimtbaum</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr"/>
+          <t>kinamón</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>קינמון \ קִנָּמוֹן *kinamón*</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -1757,26 +1793,30 @@
       <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>German</t>
+          <t>दारचीनी</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Zimt</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Zimt</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
+          <t>dārcīnī</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>दारचीनी *dārcīnī*</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -1787,26 +1827,30 @@
       <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>German</t>
+          <t>दालचीनी</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Kaneel</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Kaneel</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
+          <t>dālcīnī</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>दालचीनी *dālcīnī*</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -1817,28 +1861,28 @@
       <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Greek</t>
+          <t>मुखशोधन</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>κανέλα *kanéla*</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>κανέλα</t>
-        </is>
-      </c>
+          <t>mukhśodhan</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>मुखशोधन *mukhśodhan*</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>kanéla</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -1851,28 +1895,28 @@
       <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Gujarati</t>
+          <t>शीत</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>તજ *taj*</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>તજ</t>
-        </is>
-      </c>
+          <t>śīt</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>शीत *śīt*</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>taj</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -1885,26 +1929,30 @@
       <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Hausa</t>
+          <t>सलपत्र</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>kirfa</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>kirfa</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr"/>
+          <t>salpatra</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>सलपत्र *salpatra*</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H47" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -1915,28 +1963,28 @@
       <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Hebrew</t>
+          <t>सुगंधवल्कल</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>קִנָּמוֹן *qinnāmṓn*</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>קִנָּמוֹן</t>
-        </is>
-      </c>
+          <t>sugandhvalkal</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>सुगंधवल्कल *sugandhvalkal*</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>qinnāmṓn</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -1949,28 +1997,28 @@
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Hebrew</t>
+          <t>चोतक</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>קינמון \ קִנָּמוֹן *kinamón*</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>קינמון \ קִנָּמוֹן</t>
-        </is>
-      </c>
+          <t>cotak</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>चोतक *cotak*</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>kinamón</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -1983,28 +2031,28 @@
       <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>चोच</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>दालचीनी *dālcīnī*</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>दालचीनी</t>
-        </is>
-      </c>
+          <t>coc</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>चोच *coc*</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>dālcīnī</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2017,28 +2065,24 @@
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Hungarian</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Hindi</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>दारचीनी *dārcīnī*</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>दारचीनी</t>
-        </is>
-      </c>
+          <t>fahéj</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>fahéj</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>dārcīnī</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2051,28 +2095,24 @@
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Icelandic</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Hindi</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>शीत *śīt*</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>शीत</t>
-        </is>
-      </c>
+          <t>kanill</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>kanill</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>śīt</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2085,28 +2125,24 @@
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Icelandic</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Hindi</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>मुखशोधन *mukhśodhan*</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>मुखशोधन</t>
-        </is>
-      </c>
+          <t>kanell</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>kanell</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>mukhśodhan</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2119,28 +2155,24 @@
       <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Indonesian</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Hindi</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>चोच *coc*</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>चोच</t>
-        </is>
-      </c>
+          <t>kayu manis</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>kayu manis</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>coc</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2153,28 +2185,24 @@
       <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Irish</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Hindi</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>सुगंधवल्कल *sugandhvalkal*</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>सुगंधवल्कल</t>
-        </is>
-      </c>
+          <t>cainéal</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>cainéal</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>sugandhvalkal</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2187,28 +2215,24 @@
       <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Italian</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Hindi</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>चोतक *cotak*</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>चोतक</t>
-        </is>
-      </c>
+          <t>cannella</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>cannella</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>cotak</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2221,28 +2245,28 @@
       <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Japanese</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>シナモン</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>दालचीनी *dālcīnī*</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>दालचीनी</t>
-        </is>
-      </c>
+          <t>shinamon</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>シナモン *shinamon*</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>dālcīnī</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2255,28 +2279,28 @@
       <c r="A58" t="inlineStr"/>
       <c r="B58" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Japanese</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>肉桂</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>सलपत्र *salpatra*</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>सलपत्र</t>
-        </is>
-      </c>
+          <t>nikki, nikkei</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>肉桂 *nikki, nikkei*</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>salpatra</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2289,26 +2313,26 @@
       <c r="A59" t="inlineStr"/>
       <c r="B59" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Kabuverdianu</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Hungarian</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>fahéjfa</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>fahéjfa</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr"/>
+          <t>kanéla</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>kanéla</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -2319,26 +2343,30 @@
       <c r="A60" t="inlineStr"/>
       <c r="B60" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Kannada</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Hungarian</t>
+          <t>ದಾಲ್ಚಿನ್ನಿ</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>fahéj</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>fahéj</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr"/>
+          <t>dālcinni</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>ದಾಲ್ಚಿನ್ನಿ *dālcinni*</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H60" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -2349,26 +2377,30 @@
       <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Kazakh</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Icelandic</t>
+          <t>даршын</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>kaniltré</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>kaniltré</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr"/>
+          <t>darşyn</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>даршын *darşyn*</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H61" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -2379,26 +2411,26 @@
       <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Kikuyu</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Icelandic</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>kanill</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>kanill</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr"/>
+          <t>ndarathini</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ndarathini </t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -2409,26 +2441,30 @@
       <c r="A63" t="inlineStr"/>
       <c r="B63" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Korean</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Icelandic</t>
+          <t>계피</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>kanell</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>kanell</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr"/>
+          <t>gyepi</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>계피 *gyepi*</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H63" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -2439,26 +2475,30 @@
       <c r="A64" t="inlineStr"/>
       <c r="B64" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Korean</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Indonesian</t>
+          <t>시나몬</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>kayumanis</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>kayumanis</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr"/>
+          <t>sinamon</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>시나몬 *sinamon*</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H64" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -2469,26 +2509,30 @@
       <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Kurdish</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Indonesian</t>
+          <t>دارچین</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>kayu manis</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>kayu manis</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr"/>
+          <t>darçîn</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>دارچین *darçîn*</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H65" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -2499,26 +2543,30 @@
       <c r="A66" t="inlineStr"/>
       <c r="B66" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Central Kurdish</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Irish</t>
+          <t>دارچین</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>cainéal</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>cainéal</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr"/>
+          <t>darçîn</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>دارچین *darçîn*</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H66" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -2529,26 +2577,26 @@
       <c r="A67" t="inlineStr"/>
       <c r="B67" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Northern Kurdish</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Italian</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>cannella</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>cannella</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr"/>
+          <t>darçîn</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>darçîn</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H67" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -2559,28 +2607,28 @@
       <c r="A68" t="inlineStr"/>
       <c r="B68" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Kyrgyz</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Japanese</t>
+          <t>корица</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>シナモン *shinamon*</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>シナモン</t>
-        </is>
-      </c>
+          <t>koritsa</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>корица *koritsa*</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>shinamon</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -2593,28 +2641,28 @@
       <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Lao</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Japanese</t>
+          <t>ແຄ່</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>肉桂 *nikki, nikkei*</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>肉桂</t>
-        </is>
-      </c>
+          <t>khǣ</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>ແຄ່ *khǣ*</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>nikki, nikkei</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -2627,28 +2675,28 @@
       <c r="A70" t="inlineStr"/>
       <c r="B70" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Lao</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Japanese</t>
+          <t>ອົບເຊີຍ</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>セイロンニッケイ *Seiron nikkei*</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>セイロンニッケイ</t>
-        </is>
-      </c>
+          <t>ʼop sœ̄i</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>ອົບເຊີຍ *ʼop sœ̄i*</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Seiron nikkei</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -2661,28 +2709,24 @@
       <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Latin</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Javanese</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>ꦏꦪꦸꦩꦤꦶꦱ꧀ *kayu manis*</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>ꦏꦪꦸꦩꦤꦶꦱ꧀</t>
-        </is>
-      </c>
+          <t>cinnamōmum</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>cinnamōmum</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>kayu manis</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -2695,26 +2739,26 @@
       <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Latin</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Kabuverdianu</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>kanéla</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>kanéla</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr"/>
+          <t>cinnamum</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>cinnamum</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H72" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -2725,28 +2769,24 @@
       <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Latvian</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Kannada</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>ದಾಲ್ಚಿನ್ನಿ *dālcinni*</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>ದಾಲ್ಚಿನ್ನಿ</t>
-        </is>
-      </c>
+          <t>kanēlis</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>kanēlis</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>dālcinni</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -2759,28 +2799,24 @@
       <c r="A74" t="inlineStr"/>
       <c r="B74" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Lithuanian</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Kazakh</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>даршын *darşyn*</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>даршын</t>
-        </is>
-      </c>
+          <t>cinamonas</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>cinamonas</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>darşyn</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -2793,26 +2829,26 @@
       <c r="A75" t="inlineStr"/>
       <c r="B75" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Low German</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Kikuyu</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ndarathini </t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>ndarathini</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr"/>
+          <t>Kaneel</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Kaneel</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H75" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -2823,28 +2859,28 @@
       <c r="A76" t="inlineStr"/>
       <c r="B76" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Macedonian</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Korean</t>
+          <t>цимет</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>계피 *gyepi*</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>계피</t>
-        </is>
-      </c>
+          <t>cimet</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>цимет *cimet*</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>gyepi</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -2857,28 +2893,24 @@
       <c r="A77" t="inlineStr"/>
       <c r="B77" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Malay</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Korean</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>실론계피나무 *sillon'gyepinamu*</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>실론계피나무</t>
-        </is>
-      </c>
+          <t>kayu manis</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>kayu manis</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>sillon'gyepinamu</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -2891,28 +2923,24 @@
       <c r="A78" t="inlineStr"/>
       <c r="B78" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Malay</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Korean</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>시나몬 *sinamon*</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>시나몬</t>
-        </is>
-      </c>
+          <t>kulit kayu manis</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>kulit kayu manis</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>sinamon</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -2925,28 +2953,28 @@
       <c r="A79" t="inlineStr"/>
       <c r="B79" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Malayalam</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Kyrgyz</t>
+          <t>കറുവപ്പട്ട</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>корица *koritsa*</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>корица</t>
-        </is>
-      </c>
+          <t>kaṟuvappaṭṭa</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>കറുവപ്പട്ട *kaṟuvappaṭṭa*</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>koritsa</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -2959,28 +2987,24 @@
       <c r="A80" t="inlineStr"/>
       <c r="B80" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Maltese</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Lao</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>ແຄ່ *khǣ*</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>ແຄ່</t>
-        </is>
-      </c>
+          <t>kannella</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>kannella</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>khǣ</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -2993,28 +3017,24 @@
       <c r="A81" t="inlineStr"/>
       <c r="B81" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Maltese</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Lao</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>ອົບເຊີຍ *ʼop sœ̄i*</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>ອົບເຊີຍ</t>
-        </is>
-      </c>
+          <t>ċinnamonu</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>ċinnamonu</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>ʼop sœ̄i</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -3027,26 +3047,26 @@
       <c r="A82" t="inlineStr"/>
       <c r="B82" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Maori</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Latin</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>cinnamōmum</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>cinnamōmum</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr"/>
+          <t>hinamona</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>hinamona</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H82" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -3057,26 +3077,26 @@
       <c r="A83" t="inlineStr"/>
       <c r="B83" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Navajo</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Latin</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>cinnamum</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>cinnamum</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr"/>
+          <t>tó wónaanídę́ę́ʼ tsin bikáshtʼóózh bitáʼahí bił éʼélʼíní</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>tó wónaanídę́ę́ʼ tsin bikáshtʼóózh bitáʼahí bił éʼélʼíní</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H83" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -3087,26 +3107,26 @@
       <c r="A84" t="inlineStr"/>
       <c r="B84" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Norman</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Latvian</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>kanēlis</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>kanēlis</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr"/>
+          <t>cannelle</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>cannelle</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H84" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -3117,26 +3137,26 @@
       <c r="A85" t="inlineStr"/>
       <c r="B85" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Norwegian</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Lithuanian</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>cinamonas</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>cinamonas</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr"/>
+          <t>kanel</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>kanel</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H85" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -3147,26 +3167,26 @@
       <c r="A86" t="inlineStr"/>
       <c r="B86" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Occitan</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Low German</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Kaneel</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Kaneel</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr"/>
+          <t>canèla</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>canèla</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H86" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -3177,28 +3197,28 @@
       <c r="A87" t="inlineStr"/>
       <c r="B87" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Ottoman Turkish</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Macedonian</t>
+          <t>دارچین</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>цимет *cimet*</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>цимет</t>
-        </is>
-      </c>
+          <t>darçın</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>دارچین *darçın*</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>cimet</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -3211,26 +3231,30 @@
       <c r="A88" t="inlineStr"/>
       <c r="B88" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Persian</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Malay</t>
+          <t>دارچین</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>kulit kayu manis</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>kulit kayu manis</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr"/>
+          <t>dârčin</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>دارچین *dârčin*</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H88" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -3241,26 +3265,26 @@
       <c r="A89" t="inlineStr"/>
       <c r="B89" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Polish</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Malay</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>kayu manis</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>kayu manis</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr"/>
+          <t>cynamon</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>cynamon</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H89" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -3271,28 +3295,24 @@
       <c r="A90" t="inlineStr"/>
       <c r="B90" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Portuguese</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Malayalam</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>കറുവപ്പട്ട *kaṟuvappaṭṭa*</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>കറുവപ്പട്ട</t>
-        </is>
-      </c>
+          <t>canela</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>canela</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>kaṟuvappaṭṭa</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -3305,28 +3325,28 @@
       <c r="A91" t="inlineStr"/>
       <c r="B91" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Punjabi</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Malayalam</t>
+          <t>ਦਾਲ਼ਚੀਨੀ</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>കറുവ *kaṟuva*</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>കറുവ</t>
-        </is>
-      </c>
+          <t>dāḷcīnī</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>ਦਾਲ਼ਚੀਨੀ *dāḷcīnī*</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>kaṟuva</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -3339,26 +3359,26 @@
       <c r="A92" t="inlineStr"/>
       <c r="B92" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Romanian</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Maltese</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>ċinnamonu</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>ċinnamonu</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr"/>
+          <t>scorțișoară</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>scorțișoară</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H92" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -3369,26 +3389,30 @@
       <c r="A93" t="inlineStr"/>
       <c r="B93" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Russian</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Maltese</t>
+          <t>кори́ца</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>kannella</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>kannella</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr"/>
+          <t>koríca</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>кори́ца *koríca*</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H93" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -3399,26 +3423,30 @@
       <c r="A94" t="inlineStr"/>
       <c r="B94" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Sanskrit</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Maori</t>
+          <t>दारुचिनी</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>hinamona</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>hinamona</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr"/>
+          <t>dārucinī</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>दारुचिनी *dārucinī*</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H94" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -3429,28 +3457,28 @@
       <c r="A95" t="inlineStr"/>
       <c r="B95" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Sanskrit</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Marathi</t>
+          <t>चोच</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>दालचीनी *dālcīnī*</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>दालचीनी</t>
-        </is>
-      </c>
+          <t>coca</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>चोच *coca*</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>dālcīnī</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -3463,28 +3491,28 @@
       <c r="A96" t="inlineStr"/>
       <c r="B96" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Sanskrit</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Mongolian</t>
+          <t>चोचक</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>шанц *šanc*</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>шанц</t>
-        </is>
-      </c>
+          <t>cocaka</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>चोचक *cocaka*</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>šanc</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -3497,26 +3525,30 @@
       <c r="A97" t="inlineStr"/>
       <c r="B97" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Sanskrit</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Navajo</t>
+          <t>दारुसिता</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>tó wónaanídę́ę́ʼ tsin bikáshtʼóózh bitáʼahí bił éʼélʼíní</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>tó wónaanídę́ę́ʼ tsin bikáshtʼóózh bitáʼahí bił éʼélʼíní</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr"/>
+          <t>dārusitā</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>दारुसिता *dārusitā*</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H97" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -3527,28 +3559,28 @@
       <c r="A98" t="inlineStr"/>
       <c r="B98" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Sanskrit</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Nepali</t>
+          <t>बहुगन्ध</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>दालचिनी *dālacinī*</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>दालचिनी</t>
-        </is>
-      </c>
+          <t>bahugandha</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>बहुगन्ध *bahugandha*</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>dālacinī</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -3561,26 +3593,26 @@
       <c r="A99" t="inlineStr"/>
       <c r="B99" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Serbo-Croatian</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Norman</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>cannelle</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>cannelle</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr"/>
+          <t>цимет</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>цимет</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H99" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -3591,26 +3623,26 @@
       <c r="A100" t="inlineStr"/>
       <c r="B100" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Cyrillic</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Norwegian</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>kanel</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>kanel</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr"/>
+          <t>цимет</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>цимет</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H100" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -3621,26 +3653,26 @@
       <c r="A101" t="inlineStr"/>
       <c r="B101" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Roman</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Norwegian</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>kaneltre</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>kaneltre</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr"/>
+          <t>cimet</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>cimet</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H101" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -3651,26 +3683,30 @@
       <c r="A102" t="inlineStr"/>
       <c r="B102" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Shan</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Occitan</t>
+          <t>ၵႅင်းႁွမ်</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>canèla</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>canèla</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr"/>
+          <t>shn</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>ၵႅင်းႁွမ် *shn* *kéng hǎum*</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H102" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -3681,26 +3717,26 @@
       <c r="A103" t="inlineStr"/>
       <c r="B103" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Slovak</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Oromo</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>qarafaa</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>qarafaa</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr"/>
+          <t>škorica</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>škorica</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H103" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -3711,28 +3747,24 @@
       <c r="A104" t="inlineStr"/>
       <c r="B104" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Slovene</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Ottoman Turkish</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>دارچین *darçın*</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>دارچین</t>
-        </is>
-      </c>
+          <t>cimet</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>cimet</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
         <is>
-          <t>darçın</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -3745,28 +3777,24 @@
       <c r="A105" t="inlineStr"/>
       <c r="B105" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Sorbian</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Persian</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>دارچین *dârčin*</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>دارچین</t>
-        </is>
-      </c>
+          <t>cymt</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>cymt</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr">
         <is>
-          <t>dârčin</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -3779,26 +3807,26 @@
       <c r="A106" t="inlineStr"/>
       <c r="B106" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Lower Sorbian</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Polish</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>cynamon</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>cynamon</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr"/>
+          <t>cymt</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>cymt</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H106" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -3809,26 +3837,26 @@
       <c r="A107" t="inlineStr"/>
       <c r="B107" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Upper Sorbian</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Polish</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>cynamonowiec</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>cynamonowiec</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr"/>
+          <t>cymt</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>cymt</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H107" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -3839,26 +3867,26 @@
       <c r="A108" t="inlineStr"/>
       <c r="B108" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Upper Sorbian</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Portuguese</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>caneleira</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>caneleira</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr"/>
+          <t>skorica</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>skorica</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H108" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -3869,26 +3897,26 @@
       <c r="A109" t="inlineStr"/>
       <c r="B109" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Spanish</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Portuguese</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
           <t>canela</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr">
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
         <is>
           <t>canela</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H109" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -3899,26 +3927,26 @@
       <c r="A110" t="inlineStr"/>
       <c r="B110" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Swahili</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Punjabi</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>दालचीनी</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>दालचीनी</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr"/>
+          <t>dalasini</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>dalasini</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H110" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -3929,28 +3957,24 @@
       <c r="A111" t="inlineStr"/>
       <c r="B111" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Swedish</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Punjabi</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>ਦਾਲ਼ਚੀਨੀ *dāḷcīnī*</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>ਦਾਲ਼ਚੀਨੀ</t>
-        </is>
-      </c>
+          <t>kanel</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>kanel</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr">
         <is>
-          <t>dāḷcīnī</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -3963,26 +3987,26 @@
       <c r="A112" t="inlineStr"/>
       <c r="B112" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Tagalog</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Romanian</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>scorțișor</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>scorțișor</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr"/>
+          <t>kanela</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>kanela</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H112" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -3993,26 +4017,26 @@
       <c r="A113" t="inlineStr"/>
       <c r="B113" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Tai Dam</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Romanian</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>scorțișoară</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>scorțișoară</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr"/>
+          <t>ꪵꪁꪫ꪿</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>ꪵꪁꪫ꪿</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H113" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -4023,28 +4047,28 @@
       <c r="A114" t="inlineStr"/>
       <c r="B114" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Tajik</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Russian</t>
+          <t>дорчин</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>кори́чник настоя́щий *koríčnik nastojáščij*</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>кори́чник настоя́щий</t>
-        </is>
-      </c>
+          <t>dorčin</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>дорчин *dorčin*</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr">
         <is>
-          <t>koríčnik nastojáščij</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -4057,28 +4081,28 @@
       <c r="A115" t="inlineStr"/>
       <c r="B115" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Tatar</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Russian</t>
+          <t>дарчин</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>кори́чное де́рево *koríčnoje dérevo*</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>кори́чное де́рево</t>
-        </is>
-      </c>
+          <t>darçin</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>дарчин *darçin*</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr">
         <is>
-          <t>koríčnoje dérevo</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -4091,28 +4115,28 @@
       <c r="A116" t="inlineStr"/>
       <c r="B116" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Telugu</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Russian</t>
+          <t>దాల్చిని</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>кори́ца *koríca*</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>кори́ца</t>
-        </is>
-      </c>
+          <t>dālcini</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>దాల్చిని *dālcini*</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr">
         <is>
-          <t>koríca</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -4125,28 +4149,28 @@
       <c r="A117" t="inlineStr"/>
       <c r="B117" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Telugu</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Sanskrit</t>
+          <t>లవంగపట్ట</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>चोच *coca*</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>चोच</t>
-        </is>
-      </c>
+          <t>lavaṅgapaṭṭa</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>లవంగపట్ట *lavaṅgapaṭṭa*</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr">
         <is>
-          <t>coca</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -4159,28 +4183,28 @@
       <c r="A118" t="inlineStr"/>
       <c r="B118" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Thai</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Sanskrit</t>
+          <t>อบเชย</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>चोचक *cocaka*</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>चोचक</t>
-        </is>
-      </c>
+          <t>òp-chəəi</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>อบเชย *òp-chəəi*</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr">
         <is>
-          <t>cocaka</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -4193,28 +4217,28 @@
       <c r="A119" t="inlineStr"/>
       <c r="B119" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Tigrinya</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Sanskrit</t>
+          <t>ቃርፋ</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>दारुसिता *dārusitā*</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>दारुसिता</t>
-        </is>
-      </c>
+          <t>ḳarfa</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>ቃርፋ *ḳarfa*</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr">
         <is>
-          <t>dārusitā</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -4227,28 +4251,24 @@
       <c r="A120" t="inlineStr"/>
       <c r="B120" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Turkish</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Sanskrit</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>दारुचिनी *dārucinī*</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>दारुचिनी</t>
-        </is>
-      </c>
+          <t>tarçın</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>tarçın</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr">
         <is>
-          <t>dārucinī</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -4261,28 +4281,24 @@
       <c r="A121" t="inlineStr"/>
       <c r="B121" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Turkmen</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Sanskrit</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>बहुगन्ध *bahugandha*</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>बहुगन्ध</t>
-        </is>
-      </c>
+          <t>darçyn</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>darçyn</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr">
         <is>
-          <t>bahugandha</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -4295,28 +4311,28 @@
       <c r="A122" t="inlineStr"/>
       <c r="B122" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Ukrainian</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Shan</t>
+          <t>кори́ця</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>ၵႅင်းႁွမ် *shn* *kéng hǎum*</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>ၵႅင်းႁွမ်</t>
-        </is>
-      </c>
+          <t>korýcja</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>кори́ця *korýcja*</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr">
         <is>
-          <t>shn</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -4329,28 +4345,28 @@
       <c r="A123" t="inlineStr"/>
       <c r="B123" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Ukrainian</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Sinhalese</t>
+          <t>цинамо́н</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>කුරුඳු *kuruⁿdu*</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>කුරුඳු</t>
-        </is>
-      </c>
+          <t>cynamón</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>цинамо́н *cynamón*</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr">
         <is>
-          <t>kuruⁿdu</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -4363,26 +4379,30 @@
       <c r="A124" t="inlineStr"/>
       <c r="B124" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Urdu</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Slovak</t>
+          <t>دارچینی</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>škoricovník</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>škoricovník</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr"/>
+          <t>dārcīnī</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>دارچینی *dārcīnī*</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H124" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -4393,26 +4413,30 @@
       <c r="A125" t="inlineStr"/>
       <c r="B125" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Uyghur</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Slovak</t>
+          <t>دارچىن</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>škorica</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>škorica</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr"/>
+          <t>darchin</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>دارچىن *darchin*</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H125" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -4423,26 +4447,26 @@
       <c r="A126" t="inlineStr"/>
       <c r="B126" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Uzbek</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Slovene</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>cimet</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>cimet</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr"/>
+          <t>dolchin</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>dolchin</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H126" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -4453,26 +4477,26 @@
       <c r="A127" t="inlineStr"/>
       <c r="B127" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Uzbek</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Somali</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>qorfe</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>qorfe</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr"/>
+          <t>koritsa</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>koritsa</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H127" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -4483,26 +4507,26 @@
       <c r="A128" t="inlineStr"/>
       <c r="B128" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Venetian</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Spanish</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>canelo</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>canelo</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr"/>
+          <t>canela</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>canela</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H128" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -4513,26 +4537,26 @@
       <c r="A129" t="inlineStr"/>
       <c r="B129" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Vietnamese</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Spanish</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>canela</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>canela</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr"/>
+          <t>quế</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>quế</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H129" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -4543,26 +4567,26 @@
       <c r="A130" t="inlineStr"/>
       <c r="B130" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Volapük</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Swahili</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>mdalasini</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>mdalasini</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr"/>
+          <t>kirfat</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>kirfat</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H130" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -4573,26 +4597,26 @@
       <c r="A131" t="inlineStr"/>
       <c r="B131" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Welsh</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Swahili</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>dalasini</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>dalasini</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr"/>
+          <t>synamon</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>synamon</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H131" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -4603,26 +4627,30 @@
       <c r="A132" t="inlineStr"/>
       <c r="B132" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Yiddish</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Swedish</t>
+          <t>צימרינג</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>äkta kanel</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>äkta kanel</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr"/>
+          <t>tsimring</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>צימרינג *tsimring*</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H132" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -4633,26 +4661,30 @@
       <c r="A133" t="inlineStr"/>
       <c r="B133" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Yiddish</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Swedish</t>
+          <t>צימערינג</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>kanel</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>kanel</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr"/>
+          <t>tsimering</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>צימערינג *tsimering*</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="H133" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -4663,26 +4695,26 @@
       <c r="A134" t="inlineStr"/>
       <c r="B134" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Afrikaans</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Tagalog</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>kanela</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>kanela</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr"/>
+          <t>kaneelboom</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>kaneelboom</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
       <c r="H134" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -4693,26 +4725,30 @@
       <c r="A135" t="inlineStr"/>
       <c r="B135" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Hijazi Arabic</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Tai Dam</t>
+          <t>قرفة</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>ꪵꪁꪫ꪿</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>ꪵꪁꪫ꪿</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr"/>
+          <t>girfa</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>قرفة *girfa*</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
       <c r="H135" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -4723,28 +4759,28 @@
       <c r="A136" t="inlineStr"/>
       <c r="B136" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Moroccan Arabic</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Tajik</t>
+          <t>قرفة</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>дорчин *dorčin*</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>дорчин</t>
-        </is>
-      </c>
+          <t>qarfa</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>قرفة *qarfa*</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr">
         <is>
-          <t>dorčin</t>
+          <t>Cinnamomum_verum</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -4757,28 +4793,28 @@
       <c r="A137" t="inlineStr"/>
       <c r="B137" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Aramaic</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Tamil</t>
+          <t>ܕܪܨܝܢܝ</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>கறுவாப்பட்டை *kaṟuvāppaṭṭai*</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>கறுவாப்பட்டை</t>
-        </is>
-      </c>
+          <t>dārṣīnī</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>ܕܪܨܝܢܝ *dārṣīnī*</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr">
         <is>
-          <t>kaṟuvāppaṭṭai</t>
+          <t>Cinnamomum_verum</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -4791,28 +4827,28 @@
       <c r="A138" t="inlineStr"/>
       <c r="B138" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Aramaic</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Tamil</t>
+          <t>ܨܝܢܕܪܓ</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>இலவங்கப்பட்டை *ilavaṅkappaṭṭai*</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>இலவங்கப்பட்டை</t>
-        </is>
-      </c>
+          <t>ṣīndreḡ</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>ܨܝܢܕܪܓ *ṣīndreḡ*</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr">
         <is>
-          <t>ilavaṅkappaṭṭai</t>
+          <t>Cinnamomum_verum</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -4825,28 +4861,28 @@
       <c r="A139" t="inlineStr"/>
       <c r="B139" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Classical Syriac</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Tamil</t>
+          <t>ܕܪܨܝܢܝ</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>கருவாப்பட்டை *karuvāppaṭṭai*</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>கருவாப்பட்டை</t>
-        </is>
-      </c>
+          <t>dārṣīnī</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>ܕܪܨܝܢܝ *dārṣīnī*</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr">
         <is>
-          <t>karuvāppaṭṭai</t>
+          <t>Cinnamomum_verum</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -4859,28 +4895,28 @@
       <c r="A140" t="inlineStr"/>
       <c r="B140" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Classical Syriac</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Tatar</t>
+          <t>ܨܝܢܕܪܓ</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>дарчин *darçin*</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>дарчин</t>
-        </is>
-      </c>
+          <t>ṣīndreḡ</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>ܨܝܢܕܪܓ *ṣīndreḡ*</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr">
         <is>
-          <t>darçin</t>
+          <t>Cinnamomum_verum</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -4893,28 +4929,28 @@
       <c r="A141" t="inlineStr"/>
       <c r="B141" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Assamese</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Telugu</t>
+          <t>দালচেনি</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>లవంగపట్ట *lavaṅgapaṭṭa*</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>లవంగపట్ట</t>
-        </is>
-      </c>
+          <t>dalseni</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>দালচেনি *dalseni*</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr">
         <is>
-          <t>lavaṅgapaṭṭa</t>
+          <t>Cinnamomum_verum</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -4927,28 +4963,24 @@
       <c r="A142" t="inlineStr"/>
       <c r="B142" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Basque</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Telugu</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>దాల్చిని *dālcini*</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>దాల్చిని</t>
-        </is>
-      </c>
+          <t>kanela</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>kanela</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr">
         <is>
-          <t>dālcini</t>
+          <t>Cinnamomum_verum</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -4961,28 +4993,28 @@
       <c r="A143" t="inlineStr"/>
       <c r="B143" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Bengali</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Thai</t>
+          <t>দারচিনি</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>อบเชย *òp-chəəi*</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>อบเชย</t>
-        </is>
-      </c>
+          <t>darcini</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>দারচিনি *darcini*</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr">
         <is>
-          <t>òp-chəəi</t>
+          <t>Cinnamomum_verum</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -4995,28 +5027,28 @@
       <c r="A144" t="inlineStr"/>
       <c r="B144" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Bengali</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Tibetan</t>
+          <t>দারুচিনি</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>ཤིང་ཚ *shing tsha*</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>ཤིང་ཚ</t>
-        </is>
-      </c>
+          <t>darucini</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>দারুচিনি *darucini*</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr">
         <is>
-          <t>shing tsha</t>
+          <t>Cinnamomum_verum</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -5029,28 +5061,24 @@
       <c r="A145" t="inlineStr"/>
       <c r="B145" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Bikol Central</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Tigrinya</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>ቃርፋ *ḳarfa*</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>ቃርፋ</t>
-        </is>
-      </c>
+          <t>kanela</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>kanela</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr">
         <is>
-          <t>ḳarfa</t>
+          <t>Cinnamomum_verum</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -5063,26 +5091,26 @@
       <c r="A146" t="inlineStr"/>
       <c r="B146" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Breton</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Turkish</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>tarçın ağacı</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>tarçın ağacı</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr"/>
+          <t>gwez-kanell</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">gwez-kanell </t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
       <c r="H146" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -5093,26 +5121,30 @@
       <c r="A147" t="inlineStr"/>
       <c r="B147" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Bulgarian</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Turkish</t>
+          <t>кане́лено дърво́</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>tarçın</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>tarçın</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr"/>
+          <t>kanéleno dǎrvó</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>кане́лено дърво́ *kanéleno dǎrvó*</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
       <c r="H147" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -5123,26 +5155,30 @@
       <c r="A148" t="inlineStr"/>
       <c r="B148" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Bulgarian</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Turkmen</t>
+          <t>кане́ла</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>darçyn</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>darçyn</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr"/>
+          <t>kanéla</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>кане́ла *kanéla*</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
       <c r="H148" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -5153,28 +5189,28 @@
       <c r="A149" t="inlineStr"/>
       <c r="B149" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Burmese</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Ukrainian</t>
+          <t>သစ်ကြံပိုးပင်</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>кори́ця *korýcja*</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>кори́ця</t>
-        </is>
-      </c>
+          <t>sackrampui:pang</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>သစ်ကြံပိုးပင် *sackrampui:pang*</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr">
         <is>
-          <t>korýcja</t>
+          <t>Cinnamomum_verum</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -5187,28 +5223,24 @@
       <c r="A150" t="inlineStr"/>
       <c r="B150" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Catalan</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Ukrainian</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>цинамо́н *cynamón*</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>цинамо́н</t>
-        </is>
-      </c>
+          <t>canyeller</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>canyeller</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr">
         <is>
-          <t>cynamón</t>
+          <t>Cinnamomum_verum</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -5221,28 +5253,24 @@
       <c r="A151" t="inlineStr"/>
       <c r="B151" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Catalan</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Urdu</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>دارچینی *dārcīnī*</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>دارچینی</t>
-        </is>
-      </c>
+          <t>caneller</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>caneller</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr">
         <is>
-          <t>dārcīnī</t>
+          <t>Cinnamomum_verum</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -5255,28 +5283,28 @@
       <c r="A152" t="inlineStr"/>
       <c r="B152" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Uyghur</t>
+          <t>肉桂</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>دارچىن *darchin*</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>دارچىن</t>
-        </is>
-      </c>
+          <t>ròuguì</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>肉桂 *ròuguì*</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr">
         <is>
-          <t>darchin</t>
+          <t>Cinnamomum_verum</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -5289,26 +5317,30 @@
       <c r="A153" t="inlineStr"/>
       <c r="B153" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Uzbek</t>
+          <t>桂皮</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>dolchin</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>dolchin</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr"/>
+          <t>guìpí</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>桂皮 *guìpí*</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
       <c r="H153" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -5319,26 +5351,30 @@
       <c r="A154" t="inlineStr"/>
       <c r="B154" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Mandarin</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Uzbek</t>
+          <t>桂皮</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>koritsa</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>koritsa</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr"/>
+          <t>guìpí</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>桂皮 *guìpí*</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
       <c r="H154" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -5349,26 +5385,26 @@
       <c r="A155" t="inlineStr"/>
       <c r="B155" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Czech</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Venetian</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>canela</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>canela</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr"/>
+          <t>skořicovník</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>skořicovník</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
       <c r="H155" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -5379,26 +5415,30 @@
       <c r="A156" t="inlineStr"/>
       <c r="B156" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Dhivehi</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Vietnamese</t>
+          <t>ފޮނި ތޮށި</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>quế</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>quế</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr"/>
+          <t>foni toṣi</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>ފޮނި ތޮށި *foni toṣi*</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
       <c r="H156" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -5409,26 +5449,26 @@
       <c r="A157" t="inlineStr"/>
       <c r="B157" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Dutch</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Vietnamese</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>cây quế</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>cây quế</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr"/>
+          <t>kaneelboom</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>kaneelboom</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
       <c r="H157" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -5439,26 +5479,26 @@
       <c r="A158" t="inlineStr"/>
       <c r="B158" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Esperanto</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Volapük</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>kirfatabim</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>kirfatabim</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr"/>
+          <t>vera cinamomo</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>vera cinamomo</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
       <c r="H158" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -5469,26 +5509,26 @@
       <c r="A159" t="inlineStr"/>
       <c r="B159" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Finnish</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Volapük</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>kirfat</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>kirfat</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr"/>
+          <t>ceyloninkaneli</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>ceyloninkaneli</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
       <c r="H159" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -5499,26 +5539,26 @@
       <c r="A160" t="inlineStr"/>
       <c r="B160" t="inlineStr">
         <is>
-          <t>''Cinnamomum_verum''</t>
+          <t>Finnish</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Volapük</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>kirfatep</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>kirfatep</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr"/>
+          <t>kanelipuu</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>kanelipuu</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
       <c r="H160" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -5529,26 +5569,26 @@
       <c r="A161" t="inlineStr"/>
       <c r="B161" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>French</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Welsh</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>synamon</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>synamon</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr"/>
+          <t>cannelier</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>cannelier</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
       <c r="H161" t="inlineStr">
         <is>
           <t>Wiktionary</t>
@@ -5559,28 +5599,24 @@
       <c r="A162" t="inlineStr"/>
       <c r="B162" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>German</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Yiddish</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>צימערינג *tsimering*</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>צימערינג</t>
-        </is>
-      </c>
+          <t>Zimtbaum</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Zimtbaum</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr">
         <is>
-          <t>tsimering</t>
+          <t>Cinnamomum_verum</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -5593,31 +5629,1243 @@
       <c r="A163" t="inlineStr"/>
       <c r="B163" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Gujarati</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Yiddish</t>
+          <t>તજ</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>צימרינג *tsimring*</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>צימרינג</t>
-        </is>
-      </c>
+          <t>taj</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>તજ *taj*</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr">
         <is>
-          <t>tsimring</t>
+          <t>Cinnamomum_verum</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
+        <is>
+          <t>Wiktionary</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr"/>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Hebrew</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>קִנָּמוֹן</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>qinnāmṓn</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>קִנָּמוֹן *qinnāmṓn*</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Wiktionary</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr"/>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>दालचीनी</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>dālcīnī</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>दालचीनी *dālcīnī*</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Wiktionary</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr"/>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Hungarian</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>fahéjfa</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>fahéjfa</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Wiktionary</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr"/>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Icelandic</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>kaniltré</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>kaniltré</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Wiktionary</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr"/>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Icelandic</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>kanill</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>kanill</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Wiktionary</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr"/>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Indonesian</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>kayumanis</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>kayumanis</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Wiktionary</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr"/>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Japanese</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>セイロンニッケイ</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Seiron nikkei</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>セイロンニッケイ *Seiron nikkei*</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Wiktionary</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr"/>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Javanese</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>ꦏꦪꦸꦩꦤꦶꦱ꧀</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>kayu manis</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>ꦏꦪꦸꦩꦤꦶꦱ꧀ *kayu manis*</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Wiktionary</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr"/>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Korean</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>시나몬</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>sinamon</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>시나몬 *sinamon*</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Wiktionary</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr"/>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Korean</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>실론계피나무</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>sillon'gyepinamu</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>실론계피나무 *sillon'gyepinamu*</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Wiktionary</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr"/>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Malayalam</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>കറുവ</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>kaṟuva</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>കറുവ *kaṟuva*</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Wiktionary</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr"/>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Marathi</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>दालचीनी</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>dālcīnī</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>दालचीनी *dālcīnī*</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Wiktionary</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr"/>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Mongolian</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>шанц</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>šanc</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>шанц *šanc*</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Wiktionary</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr"/>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Nepali</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>दालचिनी</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>dālacinī</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>दालचिनी *dālacinī*</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Wiktionary</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr"/>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Norwegian</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>kaneltre</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>kaneltre</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Wiktionary</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr"/>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Oromo</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>qarafaa</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>qarafaa</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Wiktionary</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr"/>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Polish</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>cynamonowiec</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>cynamonowiec</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Wiktionary</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr"/>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Portuguese</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>caneleira</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>caneleira</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Wiktionary</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr"/>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Punjabi</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>दालचीनी</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>दालचीनी</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Wiktionary</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr"/>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Romanian</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>scorțișor</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>scorțișor</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Wiktionary</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr"/>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Russian</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>кори́чное де́рево</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>koríčnoje dérevo</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>кори́чное де́рево *koríčnoje dérevo*</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Wiktionary</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr"/>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Russian</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>кори́ца</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>koríca</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>кори́ца *koríca*</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Wiktionary</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr"/>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Russian</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>кори́чник настоя́щий</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>koríčnik nastojáščij</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>кори́чник настоя́щий *koríčnik nastojáščij*</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Wiktionary</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr"/>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Sinhalese</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>කුරුඳු</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>kuruⁿdu</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>කුරුඳු *kuruⁿdu*</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Wiktionary</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr"/>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Slovak</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>škoricovník</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>škoricovník</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Wiktionary</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr"/>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Somali</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>qorfe</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>qorfe</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Wiktionary</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr"/>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>canelo</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>canelo</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Wiktionary</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr"/>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Swahili</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>mdalasini</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>mdalasini</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Wiktionary</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr"/>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Swedish</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>äkta kanel</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>äkta kanel</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Wiktionary</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr"/>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Swedish</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>kanel</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>kanel</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Wiktionary</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr"/>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Tamil</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>இலவங்கப்பட்டை</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>ilavaṅkappaṭṭai</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>இலவங்கப்பட்டை *ilavaṅkappaṭṭai*</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Wiktionary</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr"/>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Tamil</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>கருவாப்பட்டை</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>karuvāppaṭṭai</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>கருவாப்பட்டை *karuvāppaṭṭai*</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Wiktionary</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr"/>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Tamil</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>கறுவாப்பட்டை</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>kaṟuvāppaṭṭai</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>கறுவாப்பட்டை *kaṟuvāppaṭṭai*</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Wiktionary</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr"/>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Tibetan</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>ཤིང་ཚ</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>shing tsha</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>ཤིང་ཚ *shing tsha*</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Wiktionary</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr"/>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Turkish</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>tarçın ağacı</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>tarçın ağacı</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Wiktionary</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr"/>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Vietnamese</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>cây quế</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>cây quế</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Wiktionary</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr"/>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Volapük</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>kirfatep</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>kirfatep</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Wiktionary</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr"/>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Volapük</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>kirfatabim</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>kirfatabim</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Cinnamomum_verum</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
         <is>
           <t>Wiktionary</t>
         </is>
